--- a/biology/Zoologie/Agathylla_lamellosa/Agathylla_lamellosa.xlsx
+++ b/biology/Zoologie/Agathylla_lamellosa/Agathylla_lamellosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agathylla lamellosa est une espèce de petits gastéropodes terrestres de la famille des Clausiliidae. L'espèce se rencontre en Croatie et au Monténégro.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Agathylla lamellosa (J.A.Wagner, 1829)[1].
-L'espèce a été initialement classée dans le genre Clausilia sous le protonyme Clausilia lamellosa J.A.Wagner, 1829[1].
-Agathylla lamellosa a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Agathylla lamellosa (J.A.Wagner, 1829).
+L'espèce a été initialement classée dans le genre Clausilia sous le protonyme Clausilia lamellosa J.A.Wagner, 1829.
+Agathylla lamellosa a pour synonymes :
 Agathylla lamellosa (J.A.Wagner, 1829)
 Clausilia labiosa J.A.Wagner, 1829
 Clausilia lamellosa J.A.Wagner, 1829
@@ -548,7 +562,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Gotthilf Heinrich Schubert et Johann Andreas Wagner, 1829, Neues systematisches Conchylien-Cabinet, Nürnberg, vol. 12, p. 190 (lire en ligne).</t>
         </is>
